--- a/output/goog-10-q-q1-2025_extracted.xlsx
+++ b/output/goog-10-q-q1-2025_extracted.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="INCOME" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="CASH_FLOWS" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -134,6 +135,36 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/comments/comment1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>PDF Processor</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <t>From page 6 of goog-10-q-q1-2025.pdf</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments/comment2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>PDF Processor</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <t>From page 9 of goog-10-q-q1-2025.pdf</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -639,5 +670,604 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Year Ended December 31, 2024</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Year Ended December 31, 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Net income</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>23662</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>34540</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Depreciation of property and equipment</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>3413</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>4487</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Stock-based compensation expense</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>5264</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>5516</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Deferred income taxes</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>419</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>-1152</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Loss (gain) on debt and equity securities, net</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>-1781</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>-9960</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>481</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Accounts receivable, net</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>3167</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1638</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Income taxes, net</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>3011</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>7197</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Other assets</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>-1000</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>-1288</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Accounts payable</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>-2124</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>-880</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Accrued expenses and other liabilities</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>-5054</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>-5045</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Accrued revenue share</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>-322</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Deferred revenue</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>-141</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Net cash provided by operating activities</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>28848</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>36150</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Purchases of property and equipment</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>-12012</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>-17197</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Purchases of marketable securities</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>-20684</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>-18453</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Maturities and sales of marketable securities</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>24985</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>20345</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Purchases of non-marketable securities</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>-1206</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>-958</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Maturities and sales of non-marketable securities</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Acquisitions, net of cash acquired, and purchases of intangible assets</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>-61</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>-340</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Other investing activities</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Net cash used in investing activities</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>-8564</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>-16194</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Net payments related to stock-based award activities</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>-2929</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>-3110</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Repurchases of stock</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>-15696</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>-15068</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Dividend payments</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>-2434</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Proceeds from issuance of debt, net of costs</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>1982</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>4532</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Repayments of debt</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>-3079</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>-4521</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Proceeds from sale of interest in consolidated entities, net</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Net cash used in financing activities</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>-19714</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>-20201</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Effect of exchange rate changes on cash and cash equivalents</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>-125</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Net increase (decrease) in cash and cash equivalents</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>445</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>-202</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Cash and cash equivalents at beginning of period</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>24048</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>23466</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Cash and cash equivalents at end of period</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>24493</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>23264</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
--- a/output/goog-10-q-q1-2025_extracted.xlsx
+++ b/output/goog-10-q-q1-2025_extracted.xlsx
@@ -8,7 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="INCOME" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="CASH_FLOWS" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="CONSOLIDATED_BALANCE_SHEETS" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="CASH_FLOWS" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -153,6 +154,21 @@
 </file>
 
 <file path=xl/comments/comment2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>PDF Processor</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <t>From page 5 of goog-10-q-q1-2025.pdf</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments/comment3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>PDF Processor</author>
@@ -680,6 +696,519 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:C29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Year Ended December 31, 2024</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Year Ended December 31, 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Cash and cash equivalents</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>23466</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>23264</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Marketable securities</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>72191</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>72064</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Total cash, cash equivalents, and marketable securities</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>95657</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>95328</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Accounts receivable, net</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>52340</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>51000</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Other current assets</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>15714</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>15724</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Total current assets</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>163711</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>162052</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Non-marketable securities</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>37982</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>51029</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Deferred income taxes</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>17180</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>18386</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Property and equipment, net</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>171036</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>185062</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Operating lease assets</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>13588</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>13722</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Goodwill</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>31885</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>32173</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Other non-current assets</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>14874</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>12950</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Total assets</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>450256</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>475374</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Accounts payable</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>7987</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>8497</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Accrued compensation and benefits</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>15069</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>9984</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Accrued expenses and other current liabilities</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>51228</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>58300</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Accrued revenue share</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>9802</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>9965</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Deferred revenue</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>5036</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>4908</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Total current liabilities</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>89122</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>91654</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Long-term debt</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>10883</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>10886</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Income taxes payable, non-current</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>8782</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>9773</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Operating lease liabilities</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>11691</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>11678</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Other long-term liabilities</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>4694</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>6116</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Total liabilities</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>125172</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>130107</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Accumulated other comprehensive income (loss)</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>-4800</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>-4086</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Retained earnings</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>245084</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>262628</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Total stockholders’ equity</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>325084</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>345267</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Total liabilities and stockholders’ equity</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>450256</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>475374</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
